--- a/data/trans_camb/P52_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P52_R-Estudios-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>22,35</t>
+          <t>-1,91</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>9,05</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-14,06</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-4,3</t>
+          <t>2,14</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,94</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,96</t>
+          <t>1,5</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 49,87</t>
+          <t>-8,02; 2,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-21,98; 50,75</t>
+          <t>-5,74; 13,33</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-52,56; 11,65</t>
+          <t>-3,67; 4,14</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-28,34; 21,39</t>
+          <t>-2,46; 5,66</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-25,77; 22,53</t>
+          <t>-3,58; 2,83</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-15,78; 25,99</t>
+          <t>-1,91; 7,61</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>40,62%</t>
+          <t>-28,44%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>16,44%</t>
+          <t>10,36%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-20,85%</t>
+          <t>21,23%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-6,38%</t>
+          <t>49,33%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>3,21%</t>
+          <t>-6,41%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>4,88%</t>
+          <t>27,73%</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 149,18</t>
+          <t>-73,21; 95,02</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-36,36; 170,5</t>
+          <t>-65,4; 387,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-67,9; 19,36</t>
+          <t>-49,78; 194,16</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-34,72; 45,93</t>
+          <t>-40,28; 250,95</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-37,67; 44,96</t>
+          <t>-47,11; 87,31</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-23,4; 54,65</t>
+          <t>-31,53; 200,26</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>24,61</t>
+          <t>9,64</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,65</t>
+          <t>2,26</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,57</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,34</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>17,23</t>
+          <t>5,02</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>1,41</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,48; 41,16</t>
+          <t>4,73; 14,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-20,4; 17,17</t>
+          <t>-1,92; 6,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 21,69</t>
+          <t>-4,71; 4,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-10,7; 17,6</t>
+          <t>-4,07; 4,09</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,8; 28,46</t>
+          <t>1,02; 8,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,56; 10,31</t>
+          <t>-1,88; 4,45</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>49,43%</t>
+          <t>152,57%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-3,32%</t>
+          <t>35,77%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>16,76%</t>
+          <t>6,36%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,57%</t>
+          <t>7,85%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>34,08%</t>
+          <t>66,93%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,27%</t>
+          <t>18,88%</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,16; 105,92</t>
+          <t>44,29; 368,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-35,39; 44,57</t>
+          <t>-23,29; 159,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-10,07; 49,83</t>
+          <t>-39,74; 78,05</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-19,4; 40,63</t>
+          <t>-36,77; 66,73</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>11,75; 64,55</t>
+          <t>9,11; 135,64</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-19,29; 23,83</t>
+          <t>-19,68; 76,89</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-10,76</t>
+          <t>1,23</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-28,5</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-10,38</t>
+          <t>2,77</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-33,31</t>
+          <t>-2,31</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-9,98</t>
+          <t>2,06</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-31,25</t>
+          <t>-1,42</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-30,52; 13,34</t>
+          <t>-3,09; 6,39</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-47,14; -9,83</t>
+          <t>-4,6; 3,12</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-26,32; 6,43</t>
+          <t>-1,52; 7,23</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-47,75; -18,02</t>
+          <t>-6,47; 1,11</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-22,9; 2,53</t>
+          <t>-1,11; 5,16</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-43,38; -18,86</t>
+          <t>-4,33; 1,14</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-18,58%</t>
+          <t>20,37%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-49,19%</t>
+          <t>-7,57%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-15,19%</t>
+          <t>32,28%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-48,74%</t>
+          <t>-26,94%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-15,73%</t>
+          <t>28,06%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-49,24%</t>
+          <t>-19,3%</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1027,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-45,21; 29,96</t>
+          <t>-37,81; 166,04</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-69,7; -21,74</t>
+          <t>-51,54; 88,88</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-34,91; 10,91</t>
+          <t>-13,28; 115,2</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-64,25; -30,36</t>
+          <t>-56,68; 18,45</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-31,94; 4,84</t>
+          <t>-14,07; 89,17</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-62,36; -34,13</t>
+          <t>-46,14; 21,31</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>14,28</t>
+          <t>1,7</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-9,22</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>1,07</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-9,21</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>6,82</t>
+          <t>1,37</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-9,43</t>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,01; 25,77</t>
+          <t>-2,34; 5,94</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-20,99; 3,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-10,88; 9,84</t>
+          <t>-2,4; 5,76</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-17,99; 1,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 14,52</t>
+          <t>-1,54; 4,22</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-17,25; -1,07</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>26,93%</t>
+          <t>26,17%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-17,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,15%</t>
+          <t>13,25%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-15,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>12,26%</t>
+          <t>18,84%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-16,94%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1183,207 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4,97; 56,27</t>
+          <t>-29,47; 117,95</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-35,87; 8,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-17,44; 18,29</t>
+          <t>-27,02; 86,51</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-28,62; 2,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 28,42</t>
+          <t>-18,93; 71,16</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-29,03; -2,0</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>3,79</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>1,01</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>1,14</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-0,31</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>2,44</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0,34</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>1,26; 6,45</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-1,37; 4,28</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-1,09; 3,09</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-2,75; 1,59</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0,99; 4,03</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-1,13; 2,15</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>59,6%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>15,91%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>14,42%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-3,89%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>34,14%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>4,74%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>14,58; 121,12</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-19,53; 78,41</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-11,84; 47,03</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-28,85; 23,84</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>13,05; 64,71</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-14,74; 33,12</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/P52_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P52_R-Estudios-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -599,467 +608,319 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-1,91</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,7</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,92</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>2,14</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-0,35</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>1,5</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>62.13847199464637</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>56.77484491649651</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>57.10761855012332</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>58.34317463299187</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>58.88253483807825</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>57.62557356768967</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-8,02; 2,82</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-5,74; 13,33</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-3,67; 4,14</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-2,46; 5,66</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-3,58; 2,83</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-1,91; 7,61</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>33.99352995156995</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>29.14287626266279</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>36.94706568231123</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>41.01014471383286</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>42.26649430152221</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>42.70378986027774</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-28,44%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>10,36%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>21,23%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>49,33%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-6,41%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>27,73%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>82.72419888755451</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>82.60270205605367</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>75.38429474842947</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>72.81316390020135</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>74.31567250048965</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>73.57567771622925</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-73,21; 95,02</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-65,4; 387,05</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-49,78; 194,16</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-40,28; 250,95</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-47,11; 87,31</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-31,53; 200,26</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>7.815034185045533</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>7.140461289606642</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>9.972311639530291</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>10.18806832172617</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>8.734273155956501</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>8.547823250017121</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>9,64</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>2,26</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,55</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,67</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>5,02</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>1,41</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>2.945338481678261</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>2.679785439953526</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>3.962478742712831</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>4.283093384180288</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>4.379881466382439</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>4.452054887907691</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>4,73; 14,8</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-1,92; 6,3</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-4,71; 4,45</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-4,07; 4,09</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>1,02; 8,25</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-1,88; 4,45</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>18.12403467459753</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>21.84187146201536</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>22.91844963214174</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>25.21613059992275</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>15.6396546486165</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>16.06161178445297</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>152,57%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>35,77%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>6,36%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>7,85%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>66,93%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>18,88%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>70.7059477495927</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>38.78806058259035</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>46.58916711342992</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>42.99361042972106</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>59.96164611192136</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>40.6825904865422</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>44,29; 368,08</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-23,29; 159,22</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-39,74; 78,05</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-36,77; 66,73</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>9,11; 135,64</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-19,68; 76,89</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>59.40774750890158</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>27.43175267060258</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>35.47588920566326</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>33.29255142124616</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>51.76420659546454</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>32.82203040070956</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>1,23</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-0,46</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>2,77</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-2,31</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>2,06</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-1,42</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>79.0539923730875</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>49.72289956208012</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>58.0286646107909</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>52.69748742207661</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>67.60659711641152</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>48.15679358835871</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-3,09; 6,39</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-4,6; 3,12</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-1,52; 7,23</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-6,47; 1,11</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-1,11; 5,16</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-4,33; 1,14</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>9.159140532537622</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>5.024546154429769</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>4.508074140960662</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>4.160159870058967</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>6.609646631811382</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>4.484492415048528</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>20,37%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-7,57%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>32,28%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-26,94%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>28,06%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-19,3%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>5.202732994606318</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>2.461888620404609</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>2.586668284147049</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>2.35355065474058</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>4.545602892906237</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>2.886565677516787</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-37,81; 166,04</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-51,54; 88,88</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-13,28; 115,2</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-56,68; 18,45</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-14,07; 89,17</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-46,14; 21,31</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>14.93803541930296</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>9.333347219155392</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>7.574572860830155</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>7.079175517191474</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>9.794598759704437</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>6.738983555643449</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1067,325 +928,332 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>1,7</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>1,07</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>1,37</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>40.76688592547573</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>21.09230868236041</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>48.68638321426585</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>25.07674677277031</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>45.56486728041483</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>23.04248174673679</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-2,34; 5,94</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-2,4; 5,76</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-1,54; 4,22</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>23.84825484731912</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>10.12968350482738</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>36.88527529053422</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>14.52177039592603</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>36.37815510139127</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>15.68260926872188</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>26,17%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>13,25%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>18,84%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>55.7950531907433</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>32.90702137331342</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>59.19524252640508</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>36.49138018110112</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>55.1932134868964</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>30.93872180710122</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-29,47; 117,95</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-27,02; 86,51</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>-18,93; 71,16</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>4.636736774563445</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>2.398993229620913</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>4.754191725017916</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>2.448727018246473</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>4.765504852032972</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>2.409950146264436</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>3,79</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>1,01</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>1,14</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>-0,31</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>2,44</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>0,34</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>1.801168112342489</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>0.7214791393454785</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>2.905986859852623</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>1.150773508716632</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>3.013495399791843</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>1.311066097783465</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>1,26; 6,45</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-1,37; 4,28</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-1,09; 3,09</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>-2,75; 1,59</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>0,99; 4,03</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>-1,13; 2,15</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>9.910164776855067</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>5.971538336260458</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>7.482143118619331</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>4.671928739371269</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>7.318303283103328</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>4.063301865634626</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>59,6%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>15,91%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>14,42%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>-3,89%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>34,14%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>4,74%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>61.1621411824545</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>35.01205798572144</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>48.99204433643574</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>39.1648041764896</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>54.92238945788195</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>37.02704845800591</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>14,58; 121,12</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-19,53; 78,41</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-11,84; 47,03</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>-28,85; 23,84</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>13,05; 64,71</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>-14,74; 33,12</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>52.4757714765048</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>27.21944809098374</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>41.08834562827796</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>32.18991406230127</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>49.22262088834833</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>31.90018411030158</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>69.18059434436101</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>44.45308509211188</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>56.58167078223941</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>45.51857191677676</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>60.64283933465161</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>43.09121038372204</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>7.527603237568665</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>4.3091506600633</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>5.160394552187955</v>
+      </c>
+      <c r="F25" s="6" t="n">
+        <v>4.12527880490093</v>
+      </c>
+      <c r="G25" s="6" t="n">
+        <v>6.208976589216779</v>
+      </c>
+      <c r="H25" s="6" t="n">
+        <v>4.185908138972289</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>4.953540316088809</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>2.644564806351724</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>3.6301812568575</v>
+      </c>
+      <c r="F26" s="6" t="n">
+        <v>2.745878779304371</v>
+      </c>
+      <c r="G26" s="6" t="n">
+        <v>4.841191445829706</v>
+      </c>
+      <c r="H26" s="6" t="n">
+        <v>3.057028405867162</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>10.86248540389977</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>6.747342322421455</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>7.208344384911798</v>
+      </c>
+      <c r="F27" s="6" t="n">
+        <v>5.920972565738891</v>
+      </c>
+      <c r="G27" s="6" t="n">
+        <v>8.097086859101021</v>
+      </c>
+      <c r="H27" s="6" t="n">
+        <v>5.536565571142793</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
+  <mergeCells count="8">
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
